--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -1,48 +1,409 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,9 +411,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -61,10 +664,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1005,82 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19890" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>title</t>
   </si>
@@ -37,6 +37,84 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>成功注册-有昵称</t>
+  </si>
+  <si>
+    <t>/member/register</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${not_exited_tel}","pwd":"123456","regname":"shouwang"}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+  </si>
+  <si>
+    <t>成功注册-无昵称</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${not_exited_tel}","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10002","data":null,"msg":"注册成功"}</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"参数错误：参数不能为空"}</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${not_exited_tel}","pwd":""}</t>
+  </si>
+  <si>
+    <t>手机号-不足11位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1369917345","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"手机号格式不正确"}</t>
+  </si>
+  <si>
+    <t>手机号-超过11位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"136991734500","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>密码-少于6位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${not_exited_tel}","pwd":"12345"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+  </si>
+  <si>
+    <t>密码-大于18位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${not_exited_tel}","pwd":"1234567890123456789"}</t>
+  </si>
+  <si>
+    <t>手机号已注册</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${invest_user_tel}","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号已被注册"}</t>
   </si>
 </sst>
 </file>
@@ -49,7 +127,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +163,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,79 +585,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -595,25 +666,25 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,10 +699,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,28 +711,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,37 +1085,197 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="30.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -1,288 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19890" windowHeight="7590" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>成功注册-有昵称</t>
-  </si>
-  <si>
-    <t>/member/register</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${not_exited_tel}","pwd":"123456","regname":"shouwang"}</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
-  </si>
-  <si>
-    <t>成功注册-无昵称</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${not_exited_tel}","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10002","data":null,"msg":"注册成功"}</t>
-  </si>
-  <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"参数错误：参数不能为空"}</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${not_exited_tel}","pwd":""}</t>
-  </si>
-  <si>
-    <t>手机号-不足11位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"1369917345","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20109","data":null,"msg":"手机号格式不正确"}</t>
-  </si>
-  <si>
-    <t>手机号-超过11位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"136991734500","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>密码-少于6位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${not_exited_tel}","pwd":"12345"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
-  </si>
-  <si>
-    <t>密码-大于18位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${not_exited_tel}","pwd":"1234567890123456789"}</t>
-  </si>
-  <si>
-    <t>手机号已注册</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${invest_user_tel}","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"手机号已被注册"}</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -582,161 +473,162 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -790,11 +682,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1083,238 +970,471 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="30.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col width="9" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.75" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18.25" customWidth="1" style="1" min="3" max="3"/>
+    <col width="37.375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9" customWidth="1" style="1" min="5" max="5"/>
+    <col width="37.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="33.25" customWidth="1" style="1" min="7" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" s="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>成功注册-有昵称</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"${not_exited_tel}","pwd":"123456","regname":"shouwang"}</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" s="2">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>成功注册-无昵称</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"${not_exited_tel}","pwd":"123456"}</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="40.5" customHeight="1" s="2">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>手机号为空</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"","pwd":"123456"}</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="40.5" customHeight="1" s="2">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>密码为空</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"${not_exited_tel}","pwd":""}</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="40.5" customHeight="1" s="2">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>手机号-不足11位</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"1369917345","pwd":"123456"}</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40.5" customHeight="1" s="2">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>手机号-超过11位</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"136991734500","pwd":"123456"}</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="8" ht="40.5" customHeight="1" s="2">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>密码-少于6位</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"${not_exited_tel}","pwd":"12345"}</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="40.5" customHeight="1" s="2">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>密码-大于18位</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"${not_exited_tel}","pwd":"1234567890123456789"}</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="40.5" customHeight="1" s="2">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" ht="40.5" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>手机号已注册</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"${invest_user_tel}","pwd":"123456"}</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>